--- a/src/test/resources/testdata/friday/GermanAddressTestData.xlsx
+++ b/src/test/resources/testdata/friday/GermanAddressTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohd.abdul/ProjectCode/demo-ui-qa/src/test/resources/testdata/friday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04A10F3-2A97-EA42-A38E-12E6FAF96C62}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE151A72-6808-5E41-8116-83CF3A5EA6DE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddressParserService" sheetId="8" r:id="rId1"/>
@@ -555,11 +555,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE0A40B-AECD-E045-A7D3-6045671655A4}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="3" customWidth="1"/>
@@ -567,7 +567,7 @@
     <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -600,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -622,7 +622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -633,7 +633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -644,7 +644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -655,7 +655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -666,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
